--- a/Batch9_DailyStatus.xlsx
+++ b/Batch9_DailyStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="arshath" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="32">
   <si>
     <t>S.NO</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Marketing Analyser</t>
+  </si>
+  <si>
+    <t>Designing login page</t>
+  </si>
+  <si>
+    <t>Developing login page</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,879 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43080</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43081</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43082</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43083</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43084</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43087</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43088</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43089</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43090</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43091</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43095</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43096</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43097</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43098</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43080</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43081</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43082</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43083</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43084</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43087</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43088</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43089</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43090</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43091</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43095</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43096</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43097</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43098</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>43080</v>
@@ -554,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>43081</v>
@@ -572,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>43082</v>
@@ -590,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>43083</v>
@@ -610,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>43084</v>
@@ -619,18 +1494,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>43087</v>
@@ -650,7 +1523,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>43088</v>
@@ -670,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>43089</v>
@@ -679,16 +1552,18 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>43090</v>
@@ -708,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
         <v>43091</v>
@@ -717,18 +1592,16 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3">
         <v>43095</v>
@@ -737,16 +1610,18 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>43096</v>
@@ -755,18 +1630,16 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>43097</v>
@@ -786,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>43098</v>
@@ -804,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3">
         <v>43102</v>
@@ -824,7 +1697,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>43103</v>
@@ -844,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
         <v>43104</v>
@@ -864,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <v>43105</v>
@@ -876,6 +1749,44 @@
         <v>27</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -884,406 +1795,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43080</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43081</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43082</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43083</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43084</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43087</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43088</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>43089</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>43090</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>43091</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>43095</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>43096</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>43097</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43098</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3">
-        <v>43102</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>43103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3">
-        <v>43104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>43105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>43080</v>
@@ -1343,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>43081</v>
@@ -1361,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>43082</v>
@@ -1379,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>43083</v>
@@ -1388,18 +1905,16 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>43084</v>
@@ -1417,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>43087</v>
@@ -1426,18 +1941,16 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>43088</v>
@@ -1446,18 +1959,16 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>43089</v>
@@ -1466,18 +1977,16 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <v>43090</v>
@@ -1486,18 +1995,16 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>43091</v>
@@ -1515,7 +2022,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>43095</v>
@@ -1535,7 +2042,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>43096</v>
@@ -1544,16 +2051,18 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3">
         <v>43097</v>
@@ -1562,18 +2071,16 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>43098</v>
@@ -1591,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
         <v>43102</v>
@@ -1611,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3">
         <v>43103</v>
@@ -1631,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>43104</v>
@@ -1651,7 +2158,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3">
         <v>43105</v>
@@ -1666,386 +2173,43 @@
         <v>15</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43080</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43081</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43082</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43083</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43084</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43087</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43088</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3">
-        <v>43089</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3">
-        <v>43090</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3">
-        <v>43091</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3">
-        <v>43095</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3">
-        <v>43096</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3">
-        <v>43097</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43098</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3">
-        <v>43102</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3">
-        <v>43103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3">
-        <v>43104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3">
-        <v>43105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
